--- a/Project Management Dashboard.xlsx
+++ b/Project Management Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E9152-2982-46F7-B896-C0B8654C061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7CCB4-EAFE-47F5-8461-98D5135FC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="Workings" sheetId="4" r:id="rId2"/>
     <sheet name="Instructions" sheetId="6" r:id="rId3"/>
-    <sheet name="Dashboard Protection" sheetId="9" r:id="rId4"/>
-    <sheet name="Data" sheetId="1" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$A$1:$X$46</definedName>
@@ -26,13 +25,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
   <si>
     <t>Project</t>
   </si>
@@ -329,9 +328,6 @@
     <t>Bar chart height 3.73 x 9.0 wide.</t>
   </si>
   <si>
-    <t>Protecting your dashboard</t>
-  </si>
-  <si>
     <t>Gantt Chart - Conditional Formatting (extend the 'applies to' range to allow for growth in your data)</t>
   </si>
   <si>
@@ -366,13 +362,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0\ &quot;Days&quot;"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.0,,&quot;M&quot;"/>
-    <numFmt numFmtId="168" formatCode="\▼0.0%;\▼0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,28 +449,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF336600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -646,18 +615,456 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="164">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -686,10 +1093,10 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1018,8 +1425,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="No Border" pivot="0" table="0" count="10" xr9:uid="{EEEA172B-89F3-489D-B80E-D598FE9BFA19}">
-      <tableStyleElement type="wholeTable" dxfId="63"/>
-      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="163"/>
+      <tableStyleElement type="headerRow" dxfId="162"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1477,7 +1884,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[project_management_dashboard_non_365.xlsx]Workings!Budget_v_Actual</c:name>
+    <c:name>[Project Management Dashboard.xlsx]Workings!Budget_v_Actual</c:name>
     <c:fmtId val="21"/>
   </c:pivotSource>
   <c:chart>
@@ -5432,7 +5839,7 @@
             <xdr:cNvPr id="8" name="Manager">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5510,7 +5917,7 @@
             <xdr:cNvPr id="3" name="Project">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5586,7 +5993,7 @@
         <xdr:cNvPr id="14" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5624,7 +6031,7 @@
         <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5667,7 +6074,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5712,7 +6119,7 @@
         <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,7 +6157,7 @@
         <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5788,7 +6195,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6172,7 +6579,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6223,7 +6630,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6274,7 +6681,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6342,7 +6749,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6393,7 +6800,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,7 +6851,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,7 +6902,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6546,7 +6953,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6597,7 +7004,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6648,7 +7055,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6699,7 +7106,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6750,7 +7157,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6801,7 +7208,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6852,7 +7259,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6903,7 +7310,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6954,7 +7361,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7005,7 +7412,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7056,7 +7463,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7107,7 +7514,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7158,7 +7565,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,7 +7609,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7253,7 +7660,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7304,7 +7711,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7355,7 +7762,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7406,7 +7813,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7864,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7508,7 +7915,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7544,1351 +7951,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="Group 31">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26" descr="Video camera">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5362575" y="304800"/>
-          <a:ext cx="3333750" cy="914400"/>
-          <a:chOff x="5362575" y="304800"/>
-          <a:chExt cx="3333750" cy="914400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5362575" y="333375"/>
-            <a:ext cx="3333750" cy="857250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="2000"/>
-              <a:t>CLICK</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="2000" baseline="0"/>
-              <a:t> TO </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="2000"/>
-              <a:t>WATCH THE</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="2000"/>
-              <a:t>VIDEO TUTORIAL</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="Graphic 26" descr="Video camera">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5457825" y="304800"/>
-            <a:ext cx="914400" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="276225" y="4638675"/>
-          <a:ext cx="5943600" cy="3286124"/>
-          <a:chOff x="276225" y="4286250"/>
-          <a:chExt cx="6629400" cy="3714749"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="276225" y="4286250"/>
-            <a:ext cx="6629400" cy="3714749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>2. Worksheet Protection - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>You'll find the Worksheet Protection on the Review tab:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 3" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML16e4b49.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="542925" y="5079326"/>
-            <a:ext cx="2600325" cy="2835077"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="276225" y="752474"/>
-          <a:ext cx="11220450" cy="3771901"/>
-          <a:chOff x="276225" y="676274"/>
-          <a:chExt cx="12515850" cy="4067176"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="276225" y="676274"/>
-            <a:ext cx="6629400" cy="4067176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>1. Slicers - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>prevent users activating the pull handles when using the Slicer by selecting 'Disable resizing and moving' in the Slicer Position and Layout setting (right-click Slicer).</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Picture 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2209800" y="2319360"/>
-            <a:ext cx="2552381" cy="2123810"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Picture 7" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML1864985.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="523875" y="1729269"/>
-            <a:ext cx="1419048" cy="2780952"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7000875" y="676274"/>
-            <a:ext cx="5791200" cy="4067176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Slicers - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Simply</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> protect the worksheet containing the Dashboard, but make sure you 'unprotect' Slicers so that they can still be clicked:</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Picture 9" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML1a10d60.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5286375" y="1695450"/>
-            <a:ext cx="1466667" cy="2828571"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="352425" y="1381125"/>
-            <a:ext cx="1695450" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1100"/>
-              <a:t>Before Disabling Resizing</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="TextBox 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5057775" y="1381125"/>
-            <a:ext cx="1695450" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1100"/>
-              <a:t>After Disabling Resizing</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Picture 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8543925" y="1400175"/>
-            <a:ext cx="2542857" cy="3057143"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3124200" y="6219825"/>
-          <a:ext cx="2933700" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>If your Dashboard sheet</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> contains a PivotTable,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> make sure 'Use PivotTable &amp; PivotChart' is  checked so that Slicers work.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-AU">
-            <a:effectLst/>
-            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Note</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>, this will prevent the PivotTables in the entire file from being refreshed,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> so if you're planning on updating your dashboard with new data, then option 3 is preferred.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU">
-            <a:effectLst/>
-            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>90140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Group 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="276225" y="11196290"/>
-          <a:ext cx="5943600" cy="3510311"/>
-          <a:chOff x="276225" y="12358340"/>
-          <a:chExt cx="6629400" cy="3596036"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="TextBox 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="276225" y="12358340"/>
-            <a:ext cx="6629400" cy="3596036"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>4. Protect</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Workbook</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Once</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> you've 'VeryHidden' the sheets containing your workings and data you need to protect your workbook so your users can't unhide them.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>WARNING</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: this protection is not bullet proof. If a user wants to get to your underlying data they can find a way. A Google search will reveal various ways to crack your password, or simply remove the protection. </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Therefore Worksheet Protection should be used to prevent users breaking your report, but don't count on it protecting super sensitive information.</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="Picture 16" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML1be30b9.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2162175" y="13351281"/>
-            <a:ext cx="2238375" cy="1000125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1980924" cy="1000000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8897,362 +7975,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="5086350"/>
-          <a:ext cx="1980924" cy="1000000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>184231</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="276225" y="8086725"/>
-          <a:ext cx="5943600" cy="3013156"/>
-          <a:chOff x="276225" y="8820150"/>
-          <a:chExt cx="6629400" cy="3441781"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="276225" y="8820150"/>
-            <a:ext cx="6629400" cy="3441781"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>3. Hide Worksheets</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>A better solution is to set the property for the </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>sheets containing your data and workings to </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>VeryHidden in the VB Editor Alt+F11.</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-AU" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>When you right-click</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> the sheet tab there is no</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>indication that worksheets are hidden when </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>their properties are set to 'xlSheetVeryHidden'</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="21" name="Picture 20" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML1822ee4.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3810000" y="8985432"/>
-            <a:ext cx="2847975" cy="3140383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="22" name="Picture 21" descr="C:\Users\Mynda\AppData\Local\Temp\SNAGHTML1c4ed53.PNG">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="800100" y="10534650"/>
-            <a:ext cx="2066925" cy="1676400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3230281" cy="533616"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9262,8 +7991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9620250" y="47625"/>
-          <a:ext cx="3230281" cy="533616"/>
+          <a:off x="5457825" y="304800"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9271,7 +8000,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9895,7 +8624,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B155B9DB-4CE8-497A-978F-D31E4BA07222}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B155B9DB-4CE8-497A-978F-D31E4BA07222}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:J46" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10410,7 +9139,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="2" numFmtId="3"/>
   </dataFields>
   <formats count="50">
-    <format dxfId="55">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10420,46 +9149,46 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="154">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="153">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="152">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="151">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="150">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="149">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="148">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="147">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="146">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="145">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="144">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="143">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="142">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10469,31 +9198,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="140">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="139">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="138">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="137">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="136">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="135">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="134">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="133">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10503,31 +9232,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="131">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="130">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="129">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="128">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="127">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="126">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="125">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="124">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10537,31 +9266,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="122">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="121">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="120">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="119">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="118">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="117">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="116">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="115">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10571,19 +9300,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="113">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="112">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="111">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="8">
           <reference field="0" count="1" selected="0">
@@ -10613,7 +9342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="8">
           <reference field="0" count="1" selected="0">
@@ -10643,14 +9372,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -10671,70 +9400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABCFFF3-195F-4C92-8A2E-C048CA24D4C9}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DDFB2C1-F4B8-49AF-A1F4-4361E5203E0E}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DDFB2C1-F4B8-49AF-A1F4-4361E5203E0E}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -10861,6 +9527,69 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABCFFF3-195F-4C92-8A2E-C048CA24D4C9}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project" xr10:uid="{67259FD2-1E7C-4EC4-8B26-4EAF663DF469}" sourceName="Project">
   <pivotTables>
@@ -10917,17 +9646,17 @@
     <tableColumn id="1" xr3:uid="{4ADE78FA-797E-461B-818D-4E6F917859D6}" name="Project"/>
     <tableColumn id="2" xr3:uid="{F9E92030-47E5-4A86-AB73-A1AA5209CD55}" name="Task"/>
     <tableColumn id="3" xr3:uid="{643837EC-0E87-4517-8311-405E12C9047D}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="105"/>
     <tableColumn id="5" xr3:uid="{A5BEB9B6-A13C-4735-8C93-943512962E1A}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="104">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="102" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11237,7 +9966,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK27" sqref="AK27"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12259,7 +10988,7 @@
     <row r="30" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -12561,7 +11290,7 @@
     <row r="40" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -13111,7 +11840,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:AQ5">
-    <cfRule type="expression" dxfId="61" priority="7">
+    <cfRule type="expression" dxfId="161" priority="7">
       <formula>K$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13130,19 +11859,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ51">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="1" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="158" priority="3">
       <formula>AND(K$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="5" stopIfTrue="1">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,K$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="156" priority="6">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,K$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13209,7 +11938,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13420,8 +12149,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13546,7 +12275,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -13554,7 +12283,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -13567,7 +12296,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -13593,7 +12322,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -13601,7 +12330,7 @@
         <v>71</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -13675,62 +12404,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A235BC8-842E-409C-8DB7-81E4CBB62C43}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:U18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-    </row>
-    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="53"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="N7" s="52"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N9" s="54"/>
-    </row>
-    <row r="18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA831F74-5EFF-4E8A-B22B-18A2CB322995}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L41"/>
@@ -14105,7 +12778,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -14455,7 +13128,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>

--- a/Project Management Dashboard.xlsx
+++ b/Project Management Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7CCB4-EAFE-47F5-8461-98D5135FC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B656F-7861-4086-94A5-317E33E819C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" activeTab="3" xr2:uid="{599CBDBA-6DCB-491A-8F55-440439BE8440}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Project</t>
   </si>
@@ -357,6 +357,21 @@
   <si>
     <t>Task 10</t>
   </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Project 4</t>
+  </si>
+  <si>
+    <t>Project 5</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +382,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.0,,&quot;M&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +464,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -503,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -530,7 +551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,7 +640,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="112">
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -1054,12 +1074,6 @@
       <alignment horizontal="general"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1093,232 +1107,10 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -1425,8 +1217,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="No Border" pivot="0" table="0" count="10" xr9:uid="{EEEA172B-89F3-489D-B80E-D598FE9BFA19}">
-      <tableStyleElement type="wholeTable" dxfId="163"/>
-      <tableStyleElement type="headerRow" dxfId="162"/>
+      <tableStyleElement type="wholeTable" dxfId="111"/>
+      <tableStyleElement type="headerRow" dxfId="110"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8005,18 +7797,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mynda Treacy" refreshedDate="43906.556064583332" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="40" xr:uid="{7F044F22-30D6-49F4-936A-AD04EA158BFF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Khwaja Walid Sharaar" refreshedDate="44737.954762037036" missingItemsLimit="0" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{7F044F22-30D6-49F4-936A-AD04EA158BFF}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Project" numFmtId="0">
       <sharedItems count="5">
+        <s v="Alpha"/>
+        <s v="Delta"/>
         <s v="Gemini"/>
         <s v="Orion"/>
         <s v="Vega"/>
-        <s v="Delta"/>
-        <s v="Alpha"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
@@ -8035,92 +7827,131 @@
     </cacheField>
     <cacheField name="Manager" numFmtId="0">
       <sharedItems count="5">
-        <s v="Hirsch"/>
-        <s v="Samora"/>
         <s v="McFay"/>
         <s v="Wood"/>
         <s v="Ladd"/>
+        <s v="Hirsch"/>
+        <s v="Samora"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Start Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-17T00:00:00" maxDate="2020-03-03T00:00:00" count="11">
-        <d v="2020-02-17T00:00:00"/>
-        <d v="2020-02-18T00:00:00"/>
-        <d v="2020-02-21T00:00:00"/>
-        <d v="2020-02-20T00:00:00"/>
-        <d v="2020-02-24T00:00:00"/>
-        <d v="2020-02-25T00:00:00"/>
-        <d v="2020-02-27T00:00:00"/>
-        <d v="2020-02-26T00:00:00"/>
-        <d v="2020-02-28T00:00:00"/>
-        <d v="2020-03-02T00:00:00"/>
-        <d v="2020-02-19T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-02-17T00:00:00" maxDate="2022-03-29T00:00:00" count="40">
+        <d v="2022-03-21T00:00:00"/>
+        <d v="2022-03-22T00:00:00"/>
+        <d v="2022-03-23T00:00:00"/>
+        <d v="2022-03-24T00:00:00"/>
+        <d v="2022-03-25T00:00:00"/>
+        <d v="2022-03-26T00:00:00"/>
+        <d v="2022-03-27T00:00:00"/>
+        <d v="2022-03-28T00:00:00"/>
+        <d v="2022-03-14T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-16T00:00:00"/>
+        <d v="2022-03-17T00:00:00"/>
+        <d v="2022-03-18T00:00:00"/>
+        <d v="2022-03-19T00:00:00"/>
+        <d v="2022-03-20T00:00:00"/>
+        <d v="2022-02-17T00:00:00"/>
+        <d v="2022-02-18T00:00:00"/>
+        <d v="2022-02-19T00:00:00"/>
+        <d v="2022-02-20T00:00:00"/>
+        <d v="2022-02-21T00:00:00"/>
+        <d v="2022-02-22T00:00:00"/>
+        <d v="2022-02-23T00:00:00"/>
+        <d v="2022-02-24T00:00:00"/>
+        <d v="2022-02-25T00:00:00"/>
+        <d v="2022-02-26T00:00:00"/>
+        <d v="2022-02-27T00:00:00"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-03-01T00:00:00"/>
+        <d v="2022-03-02T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-03-04T00:00:00"/>
+        <d v="2022-03-05T00:00:00"/>
+        <d v="2022-03-06T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <d v="2022-03-09T00:00:00"/>
+        <d v="2022-03-10T00:00:00"/>
+        <d v="2022-03-11T00:00:00"/>
+        <d v="2022-03-12T00:00:00"/>
+        <d v="2022-03-13T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Duration" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="10" count="8">
+        <n v="8"/>
+        <n v="9"/>
         <n v="5"/>
+        <n v="3"/>
+        <n v="7"/>
+        <n v="10"/>
+        <n v="4"/>
         <n v="6"/>
-        <n v="10"/>
-        <n v="9"/>
-        <n v="4"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="End Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-19T00:00:00" maxDate="2020-03-14T00:00:00" count="15">
-        <d v="2020-02-21T00:00:00"/>
-        <d v="2020-02-24T00:00:00"/>
-        <d v="2020-03-02T00:00:00"/>
-        <d v="2020-03-04T00:00:00"/>
-        <d v="2020-02-20T00:00:00"/>
-        <d v="2020-02-27T00:00:00"/>
-        <d v="2020-02-28T00:00:00"/>
-        <d v="2020-03-05T00:00:00"/>
-        <d v="2020-02-26T00:00:00"/>
-        <d v="2020-03-06T00:00:00"/>
-        <d v="2020-02-19T00:00:00"/>
-        <d v="2020-03-03T00:00:00"/>
-        <d v="2020-03-12T00:00:00"/>
-        <d v="2020-03-13T00:00:00"/>
-        <d v="2020-03-10T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-02-23T00:00:00" maxDate="2022-04-09T00:00:00" count="25">
+        <d v="2022-03-30T00:00:00"/>
+        <d v="2022-04-01T00:00:00"/>
+        <d v="2022-03-29T00:00:00"/>
+        <d v="2022-03-28T00:00:00"/>
+        <d v="2022-04-04T00:00:00"/>
+        <d v="2022-04-08T00:00:00"/>
+        <d v="2022-03-24T00:00:00"/>
+        <d v="2022-03-21T00:00:00"/>
+        <d v="2022-03-31T00:00:00"/>
+        <d v="2022-02-23T00:00:00"/>
+        <d v="2022-02-25T00:00:00"/>
+        <d v="2022-03-04T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-02-24T00:00:00"/>
+        <d v="2022-03-01T00:00:00"/>
+        <d v="2022-03-02T00:00:00"/>
+        <d v="2022-03-09T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <d v="2022-03-10T00:00:00"/>
+        <d v="2022-03-11T00:00:00"/>
+        <d v="2022-03-14T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-22T00:00:00"/>
+        <d v="2022-03-16T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Days completed" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="8">
-        <n v="2"/>
         <n v="3"/>
         <n v="4"/>
+        <n v="2"/>
+        <n v="0"/>
+        <n v="8"/>
+        <n v="5"/>
         <n v="1"/>
-        <n v="0"/>
         <n v="7"/>
-        <n v="5"/>
-        <n v="8"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Progress" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="19">
+        <n v="0.375"/>
+        <n v="0.44444444444444442"/>
+        <n v="0.6"/>
+        <n v="1"/>
+        <n v="0.42857142857142855"/>
+        <n v="0.2"/>
+        <n v="0.3"/>
+        <n v="0"/>
+        <n v="0.88888888888888884"/>
+        <n v="0.625"/>
+        <n v="0.5"/>
         <n v="0.4"/>
-        <n v="0.5"/>
         <n v="0.33333333333333331"/>
         <n v="0.25"/>
-        <n v="0"/>
-        <n v="0.42857142857142855"/>
         <n v="0.1111111111111111"/>
-        <n v="1"/>
-        <n v="0.44444444444444442"/>
         <n v="0.83333333333333337"/>
         <n v="0.8"/>
         <n v="0.2857142857142857"/>
         <n v="0.66666666666666663"/>
-        <n v="0.88888888888888884"/>
-        <n v="0.2"/>
-        <n v="0.625"/>
-        <n v="0.3"/>
-        <n v="0.375"/>
-        <n v="0.6"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Budget" numFmtId="3">
@@ -8149,491 +7980,491 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="218000"/>
-    <n v="97337"/>
+    <n v="96000"/>
+    <n v="32256"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="393000"/>
-    <n v="177440"/>
+    <x v="1"/>
+    <n v="513000"/>
+    <n v="226233"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="86000"/>
-    <n v="31046"/>
+    <x v="2"/>
+    <n v="616000"/>
+    <n v="401579"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="2"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="732000"/>
-    <n v="261324"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="817000"/>
+    <n v="807069"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="492000"/>
-    <n v="116850"/>
+    <n v="372000"/>
+    <n v="173166"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="188000"/>
-    <n v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="50000"/>
+    <n v="8400"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
     <x v="1"/>
-    <x v="3"/>
+    <x v="6"/>
     <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="180000"/>
-    <n v="79380"/>
+    <n v="807000"/>
+    <n v="262679"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
     <x v="2"/>
-    <x v="4"/>
+    <x v="7"/>
+    <x v="3"/>
     <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="582000"/>
-    <n v="195231"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="4"/>
     <x v="3"/>
     <x v="7"/>
-    <x v="3"/>
-    <x v="6"/>
-    <n v="562000"/>
-    <n v="74746"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="416000"/>
-    <n v="175015"/>
+    <n v="691000"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="8"/>
-    <x v="5"/>
-    <x v="7"/>
-    <n v="293000"/>
-    <n v="273001"/>
+    <n v="787000"/>
+    <n v="727188"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="5"/>
     <x v="3"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
-    <x v="8"/>
-    <n v="224000"/>
-    <n v="57910"/>
+    <n v="228000"/>
+    <n v="47880"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
     <x v="6"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="978000"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="147000"/>
     <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="932000"/>
-    <n v="379157"/>
+    <x v="9"/>
+    <n v="338000"/>
+    <n v="205123"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="4"/>
     <x v="2"/>
-    <x v="4"/>
+    <x v="12"/>
+    <x v="5"/>
     <x v="8"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="854000"/>
-    <n v="322812"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="857000"/>
+    <n v="305949"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="3"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="81000"/>
-    <n v="38461"/>
+    <x v="10"/>
+    <n v="602000"/>
+    <n v="322371"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="1"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="2"/>
-    <x v="6"/>
-    <x v="9"/>
-    <n v="169000"/>
-    <n v="136468"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="61000"/>
-    <n v="12078"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="645000"/>
-    <n v="273048"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="7"/>
     <x v="10"/>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="68000"/>
-    <n v="64987"/>
+    <n v="990000"/>
+    <n v="451440"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="15"/>
     <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="839000"/>
-    <n v="406974"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="218000"/>
+    <n v="97337"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="7"/>
+    <x v="10"/>
     <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
     <x v="10"/>
-    <n v="729000"/>
-    <n v="487139"/>
+    <n v="393000"/>
+    <n v="177440"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="4"/>
+    <x v="0"/>
+    <x v="17"/>
     <x v="5"/>
     <x v="11"/>
     <x v="1"/>
-    <x v="5"/>
-    <n v="826000"/>
-    <n v="298186"/>
+    <x v="11"/>
+    <n v="86000"/>
+    <n v="31046"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="7"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="12"/>
     <x v="0"/>
-    <x v="11"/>
-    <n v="895000"/>
-    <n v="280583"/>
+    <x v="12"/>
+    <n v="732000"/>
+    <n v="261324"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="6"/>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="492000"/>
+    <n v="116850"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="20"/>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="188000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
     <x v="4"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="180000"/>
+    <n v="79380"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="582000"/>
+    <n v="195231"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="8"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="14"/>
+    <n v="562000"/>
+    <n v="74746"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="24"/>
     <x v="7"/>
-    <x v="11"/>
+    <x v="17"/>
     <x v="0"/>
-    <x v="12"/>
-    <n v="341000"/>
-    <n v="129785"/>
+    <x v="10"/>
+    <n v="416000"/>
+    <n v="175015"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
     <x v="3"/>
-    <x v="12"/>
+    <x v="25"/>
+    <x v="4"/>
+    <x v="18"/>
     <x v="7"/>
-    <x v="13"/>
-    <n v="787000"/>
-    <n v="727188"/>
+    <x v="3"/>
+    <n v="293000"/>
+    <n v="273001"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="26"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="228000"/>
-    <n v="47880"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="224000"/>
+    <n v="57910"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="2"/>
     <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="147000"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="978000"/>
     <n v="0"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="15"/>
-    <n v="338000"/>
-    <n v="205123"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="932000"/>
+    <n v="379157"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
     <x v="2"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="16"/>
-    <n v="857000"/>
-    <n v="305949"/>
+    <x v="29"/>
+    <x v="6"/>
+    <x v="18"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="854000"/>
+    <n v="322812"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
+    <x v="3"/>
+    <x v="30"/>
+    <x v="7"/>
+    <x v="20"/>
     <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="602000"/>
-    <n v="322371"/>
+    <x v="10"/>
+    <n v="81000"/>
+    <n v="38461"/>
   </r>
   <r>
     <x v="3"/>
     <x v="6"/>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="21"/>
+    <x v="5"/>
+    <x v="15"/>
+    <n v="169000"/>
+    <n v="136468"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="6"/>
+    <x v="19"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="61000"/>
+    <n v="12078"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="33"/>
     <x v="4"/>
-    <x v="6"/>
+    <x v="22"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="990000"/>
-    <n v="451440"/>
+    <x v="4"/>
+    <n v="645000"/>
+    <n v="273048"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="34"/>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="68000"/>
+    <n v="64987"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="17"/>
-    <n v="96000"/>
-    <n v="32256"/>
+    <x v="3"/>
+    <x v="35"/>
+    <x v="5"/>
+    <x v="23"/>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="839000"/>
+    <n v="406974"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="12"/>
+    <x v="4"/>
+    <x v="36"/>
     <x v="2"/>
-    <x v="8"/>
-    <n v="513000"/>
-    <n v="226233"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="729000"/>
+    <n v="487139"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
+    <x v="0"/>
+    <x v="37"/>
     <x v="4"/>
-    <x v="3"/>
+    <x v="7"/>
     <x v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="18"/>
-    <n v="616000"/>
-    <n v="401579"/>
+    <x v="4"/>
+    <n v="826000"/>
+    <n v="298186"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="7"/>
-    <x v="0"/>
     <x v="1"/>
-    <x v="7"/>
-    <n v="817000"/>
-    <n v="807069"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="895000"/>
+    <n v="280583"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="1"/>
     <x v="2"/>
-    <x v="5"/>
+    <x v="39"/>
+    <x v="3"/>
+    <x v="24"/>
     <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="372000"/>
-    <n v="173166"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="50000"/>
-    <n v="8400"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="16"/>
-    <n v="807000"/>
-    <n v="262679"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="691000"/>
-    <n v="0"/>
+    <x v="18"/>
+    <n v="341000"/>
+    <n v="129785"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B155B9DB-4CE8-497A-978F-D31E4BA07222}" name="Gantt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B155B9DB-4CE8-497A-978F-D31E4BA07222}" name="Gantt" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:J46" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
-        <item x="4"/>
-        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8652,92 +8483,131 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
+        <item x="2"/>
         <item x="4"/>
+        <item x="3"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="15">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="12"/>
-      </items>
-    </pivotField>
-    <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="3"/>
+      <items count="40">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="19">
-        <item x="4"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="25">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+      </items>
+    </pivotField>
+    <pivotField name="Days comp." axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="19">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -8758,8 +8628,8 @@
       <x/>
       <x/>
       <x v="4"/>
-      <x v="9"/>
-      <x v="10"/>
+      <x/>
+      <x/>
       <x v="5"/>
       <x v="3"/>
       <x v="18"/>
@@ -8767,8 +8637,8 @@
     <i r="1">
       <x v="1"/>
       <x v="3"/>
-      <x v="10"/>
-      <x v="14"/>
+      <x v="1"/>
+      <x v="1"/>
       <x v="6"/>
       <x v="4"/>
       <x v="10"/>
@@ -8776,7 +8646,7 @@
     <i r="1">
       <x v="2"/>
       <x/>
-      <x v="3"/>
+      <x v="2"/>
       <x v="2"/>
       <x v="2"/>
       <x v="3"/>
@@ -8785,8 +8655,8 @@
     <i r="1">
       <x v="3"/>
       <x v="2"/>
-      <x v="2"/>
-      <x v="1"/>
+      <x v="3"/>
+      <x v="3"/>
       <x/>
       <x v="3"/>
       <x v="4"/>
@@ -8795,7 +8665,7 @@
       <x v="4"/>
       <x v="1"/>
       <x v="4"/>
-      <x v="12"/>
+      <x v="4"/>
       <x v="4"/>
       <x v="3"/>
       <x v="8"/>
@@ -8804,7 +8674,7 @@
       <x v="5"/>
       <x v="4"/>
       <x v="5"/>
-      <x v="7"/>
+      <x v="5"/>
       <x v="7"/>
       <x v="2"/>
       <x v="1"/>
@@ -8812,8 +8682,8 @@
     <i r="1">
       <x v="6"/>
       <x v="3"/>
+      <x v="6"/>
       <x v="5"/>
-      <x v="7"/>
       <x v="7"/>
       <x v="3"/>
       <x v="17"/>
@@ -8821,8 +8691,8 @@
     <i r="1">
       <x v="7"/>
       <x/>
-      <x v="5"/>
-      <x v="2"/>
+      <x v="7"/>
+      <x/>
       <x/>
       <x/>
       <x/>
@@ -8831,8 +8701,8 @@
       <x v="1"/>
       <x/>
       <x v="2"/>
-      <x v="10"/>
-      <x v="14"/>
+      <x v="8"/>
+      <x v="6"/>
       <x v="6"/>
       <x v="6"/>
       <x v="15"/>
@@ -8840,8 +8710,8 @@
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x v="10"/>
       <x v="9"/>
+      <x v="3"/>
       <x v="7"/>
       <x v="2"/>
       <x v="1"/>
@@ -8849,8 +8719,8 @@
     <i r="1">
       <x v="2"/>
       <x v="4"/>
-      <x/>
-      <x/>
+      <x v="10"/>
+      <x v="7"/>
       <x v="1"/>
       <x/>
       <x/>
@@ -8858,8 +8728,8 @@
     <i r="1">
       <x v="3"/>
       <x v="3"/>
-      <x v="2"/>
-      <x v="4"/>
+      <x v="11"/>
+      <x v="3"/>
       <x v="5"/>
       <x v="5"/>
       <x v="16"/>
@@ -8867,8 +8737,8 @@
     <i r="1">
       <x v="4"/>
       <x/>
-      <x v="5"/>
-      <x v="7"/>
+      <x v="12"/>
+      <x v="8"/>
       <x v="7"/>
       <x v="3"/>
       <x v="17"/>
@@ -8876,8 +8746,8 @@
     <i r="1">
       <x v="5"/>
       <x v="2"/>
-      <x v="6"/>
-      <x v="5"/>
+      <x v="13"/>
+      <x v="3"/>
       <x v="3"/>
       <x v="3"/>
       <x v="6"/>
@@ -8885,8 +8755,8 @@
     <i r="1">
       <x v="6"/>
       <x v="1"/>
+      <x v="14"/>
       <x v="6"/>
-      <x v="4"/>
       <x v="1"/>
       <x v="2"/>
       <x v="6"/>
@@ -8895,8 +8765,8 @@
       <x v="2"/>
       <x/>
       <x v="2"/>
-      <x/>
-      <x v="1"/>
+      <x v="15"/>
+      <x v="9"/>
       <x v="2"/>
       <x v="2"/>
       <x v="5"/>
@@ -8904,8 +8774,8 @@
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x/>
-      <x v="11"/>
+      <x v="16"/>
+      <x v="10"/>
       <x v="3"/>
       <x v="3"/>
       <x v="6"/>
@@ -8913,8 +8783,8 @@
     <i r="1">
       <x v="2"/>
       <x v="4"/>
-      <x v="1"/>
-      <x v="12"/>
+      <x v="17"/>
+      <x v="11"/>
       <x v="7"/>
       <x v="4"/>
       <x v="5"/>
@@ -8922,8 +8792,8 @@
     <i r="1">
       <x v="3"/>
       <x v="3"/>
-      <x v="4"/>
-      <x v="6"/>
+      <x v="18"/>
+      <x v="12"/>
       <x v="6"/>
       <x v="3"/>
       <x v="7"/>
@@ -8931,8 +8801,8 @@
     <i r="1">
       <x v="4"/>
       <x/>
-      <x/>
-      <x/>
+      <x v="19"/>
+      <x v="13"/>
       <x v="1"/>
       <x v="1"/>
       <x v="2"/>
@@ -8940,8 +8810,8 @@
     <i r="1">
       <x v="5"/>
       <x v="2"/>
-      <x v="3"/>
-      <x v="3"/>
+      <x v="20"/>
+      <x v="14"/>
       <x v="3"/>
       <x/>
       <x/>
@@ -8949,8 +8819,8 @@
     <i r="1">
       <x v="6"/>
       <x v="1"/>
-      <x v="3"/>
-      <x v="4"/>
+      <x v="21"/>
+      <x v="12"/>
       <x v="4"/>
       <x v="3"/>
       <x v="8"/>
@@ -8958,8 +8828,8 @@
     <i r="1">
       <x v="7"/>
       <x v="4"/>
-      <x v="5"/>
-      <x v="4"/>
+      <x v="22"/>
+      <x v="15"/>
       <x v="2"/>
       <x v="2"/>
       <x v="5"/>
@@ -8967,8 +8837,8 @@
     <i r="1">
       <x v="8"/>
       <x v="3"/>
-      <x v="5"/>
-      <x v="8"/>
+      <x v="23"/>
+      <x v="16"/>
       <x v="6"/>
       <x v="1"/>
       <x v="9"/>
@@ -8976,8 +8846,8 @@
     <i r="1">
       <x v="9"/>
       <x/>
-      <x v="5"/>
-      <x v="12"/>
+      <x v="24"/>
+      <x v="17"/>
       <x v="3"/>
       <x v="3"/>
       <x v="6"/>
@@ -8986,8 +8856,8 @@
       <x v="3"/>
       <x/>
       <x v="2"/>
-      <x v="1"/>
-      <x v="2"/>
+      <x v="25"/>
+      <x v="18"/>
       <x v="4"/>
       <x v="7"/>
       <x v="4"/>
@@ -8995,8 +8865,8 @@
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x/>
-      <x v="3"/>
+      <x v="26"/>
+      <x v="19"/>
       <x v="6"/>
       <x v="4"/>
       <x v="10"/>
@@ -9004,8 +8874,8 @@
     <i r="1">
       <x v="2"/>
       <x v="4"/>
-      <x v="1"/>
-      <x v="3"/>
+      <x v="27"/>
+      <x v="19"/>
       <x v="5"/>
       <x/>
       <x/>
@@ -9013,8 +8883,8 @@
     <i r="1">
       <x v="3"/>
       <x v="3"/>
-      <x v="3"/>
-      <x v="4"/>
+      <x v="28"/>
+      <x v="19"/>
       <x v="4"/>
       <x v="3"/>
       <x v="8"/>
@@ -9022,8 +8892,8 @@
     <i r="1">
       <x v="4"/>
       <x/>
-      <x v="4"/>
-      <x v="2"/>
+      <x v="29"/>
+      <x v="18"/>
       <x v="1"/>
       <x v="1"/>
       <x v="2"/>
@@ -9031,8 +8901,8 @@
     <i r="1">
       <x v="5"/>
       <x v="2"/>
-      <x v="4"/>
-      <x v="4"/>
+      <x v="30"/>
+      <x v="20"/>
       <x v="3"/>
       <x v="3"/>
       <x v="6"/>
@@ -9040,8 +8910,8 @@
     <i r="1">
       <x v="6"/>
       <x v="1"/>
-      <x v="5"/>
-      <x v="12"/>
+      <x v="31"/>
+      <x v="21"/>
       <x v="3"/>
       <x v="5"/>
       <x v="11"/>
@@ -9049,8 +8919,8 @@
     <i r="1">
       <x v="7"/>
       <x v="4"/>
-      <x v="6"/>
-      <x v="4"/>
+      <x v="32"/>
+      <x v="19"/>
       <x v="1"/>
       <x v="1"/>
       <x v="2"/>
@@ -9058,8 +8928,8 @@
     <i r="1">
       <x v="8"/>
       <x v="3"/>
-      <x v="8"/>
-      <x v="7"/>
+      <x v="33"/>
+      <x v="22"/>
       <x v="4"/>
       <x v="3"/>
       <x v="8"/>
@@ -9067,8 +8937,8 @@
     <i r="1">
       <x v="9"/>
       <x/>
-      <x/>
-      <x v="13"/>
+      <x v="34"/>
+      <x v="19"/>
       <x/>
       <x v="3"/>
       <x v="4"/>
@@ -9077,8 +8947,8 @@
       <x v="4"/>
       <x/>
       <x v="2"/>
-      <x/>
-      <x v="4"/>
+      <x v="35"/>
+      <x v="23"/>
       <x v="7"/>
       <x v="5"/>
       <x v="6"/>
@@ -9086,8 +8956,8 @@
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x v="4"/>
-      <x v="3"/>
+      <x v="36"/>
+      <x v="24"/>
       <x v="2"/>
       <x v="4"/>
       <x v="12"/>
@@ -9095,8 +8965,8 @@
     <i r="1">
       <x v="2"/>
       <x v="4"/>
-      <x v="5"/>
-      <x v="5"/>
+      <x v="37"/>
+      <x v="7"/>
       <x v="4"/>
       <x v="3"/>
       <x v="8"/>
@@ -9104,8 +8974,8 @@
     <i r="1">
       <x v="3"/>
       <x v="3"/>
-      <x v="7"/>
-      <x v="8"/>
+      <x v="38"/>
+      <x v="23"/>
       <x v="4"/>
       <x v="2"/>
       <x v="13"/>
@@ -9113,8 +8983,8 @@
     <i r="1">
       <x v="4"/>
       <x/>
-      <x v="9"/>
-      <x v="5"/>
+      <x v="39"/>
+      <x v="24"/>
       <x/>
       <x v="2"/>
       <x v="14"/>
@@ -9138,8 +9008,8 @@
     <dataField name="Budget " fld="8" baseField="0" baseItem="1" numFmtId="3"/>
     <dataField name="Actual " fld="9" baseField="0" baseItem="2" numFmtId="3"/>
   </dataFields>
-  <formats count="50">
-    <format dxfId="155">
+  <formats count="48">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9149,46 +9019,46 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="51">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="52">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="53">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="54">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="55">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="56">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="57">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="58">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="59">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="60">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="61">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="62">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="63">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9198,31 +9068,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="66">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="67">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="68">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="69">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="70">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="71">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="72">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9232,31 +9102,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="74">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="75">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="76">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="77">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="78">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="79">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="80">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="81">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9266,31 +9136,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="83">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="84">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="85">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="86">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="87">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="88">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="89">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="90">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9300,86 +9170,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="92">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="93">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="94">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="8">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="7" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="8">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="7" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -9400,27 +9210,90 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DDFB2C1-F4B8-49AF-A1F4-4361E5203E0E}" name="Budget_v_Actual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABCFFF3-195F-4C92-8A2E-C048CA24D4C9}" name="Days_Completed" cacheId="20" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
       <items count="6">
-        <item x="4"/>
-        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
+        <item x="3"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DDFB2C1-F4B8-49AF-A1F4-4361E5203E0E}" name="Budget_v_Actual" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="B2:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
         <item x="1"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9527,69 +9400,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABCFFF3-195F-4C92-8A2E-C048CA24D4C9}" name="Days_Completed" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Days completed " fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Duration " fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project" xr10:uid="{67259FD2-1E7C-4EC4-8B26-4EAF663DF469}" sourceName="Project">
   <pivotTables>
@@ -9600,11 +9410,11 @@
   <data>
     <tabular pivotCacheId="739774749">
       <items count="5">
-        <i x="4" s="1"/>
-        <i x="3" s="1"/>
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9621,11 +9431,11 @@
   <data>
     <tabular pivotCacheId="739774749">
       <items count="5">
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="4" s="1"/>
-        <i x="2" s="1"/>
         <i x="1" s="1"/>
-        <i x="3" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9642,21 +9452,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5D3C948-3701-4929-B04F-010B6EBC2A77}" name="Table1" displayName="Table1" ref="A1:J41" totalsRowShown="0">
   <autoFilter ref="A1:J41" xr:uid="{7E21CF9F-AD78-47F7-B4FB-8E64E3714907}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J41">
+    <sortCondition ref="A1:A41"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4ADE78FA-797E-461B-818D-4E6F917859D6}" name="Project"/>
     <tableColumn id="2" xr3:uid="{F9E92030-47E5-4A86-AB73-A1AA5209CD55}" name="Task"/>
     <tableColumn id="3" xr3:uid="{643837EC-0E87-4517-8311-405E12C9047D}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{D2195ACD-57B1-4029-9C54-9ACCE862FA18}" name="Start Date" dataDxfId="103"/>
     <tableColumn id="5" xr3:uid="{A5BEB9B6-A13C-4735-8C93-943512962E1A}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="104">
+    <tableColumn id="9" xr3:uid="{9A8390CA-408A-41FE-A909-4D1F9E77E3F2}" name="End Date" dataDxfId="102">
       <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="102" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{06B5F73C-C916-4EC2-88F2-098623EC6F35}" name="Days completed" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{704AC253-E86F-4A7F-BD63-4569C494A728}" name="Progress" dataDxfId="100" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{459C1C51-A35C-450A-B0F0-EA7E00C33AA1}" name="Budget" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{CC94112E-5637-4797-9BDD-BFCC8197D1AB}" name="Actual" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9964,9 +9777,18 @@
   </sheetPr>
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G41" activeCellId="2" sqref="G17 G37 G41 I17:J17 I37:J37 I41:J41"/>
+      <pivotSelection pane="topRight" showHeader="1" extendable="1" axis="axisRow" dimension="6" start="35" min="35" max="36" activeRow="40" activeCol="6" previousRow="40" previousCol="6" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="6" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9976,9 +9798,9 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="28" width="7" bestFit="1" customWidth="1"/>
@@ -9986,211 +9808,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="36" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="35" t="str">
         <f>TEXT(MIN(D6:D51),"d-mmm-yy")&amp;" to "&amp;TEXT(MAX(E6:E51),"d-mmm-yy")</f>
-        <v>17-Feb-20 to 13-Mar-20</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
+        <v>17-Feb-22 to 8-Apr-22</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
     </row>
     <row r="2" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3"/>
     </row>
     <row r="4" spans="1:53" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:53" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f>MIN(D6:D50)+Workings!P2</f>
-        <v>43878</v>
-      </c>
-      <c r="L5" s="28">
+        <v>44609</v>
+      </c>
+      <c r="L5" s="27">
         <f>+K5+1</f>
-        <v>43879</v>
-      </c>
-      <c r="M5" s="28">
+        <v>44610</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" ref="M5:AJ5" si="0">+L5+1</f>
-        <v>43880</v>
-      </c>
-      <c r="N5" s="28">
+        <v>44611</v>
+      </c>
+      <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>43881</v>
-      </c>
-      <c r="O5" s="28">
+        <v>44612</v>
+      </c>
+      <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>43882</v>
-      </c>
-      <c r="P5" s="28">
+        <v>44613</v>
+      </c>
+      <c r="P5" s="27">
         <f t="shared" si="0"/>
-        <v>43883</v>
-      </c>
-      <c r="Q5" s="28">
+        <v>44614</v>
+      </c>
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>43884</v>
-      </c>
-      <c r="R5" s="28">
+        <v>44615</v>
+      </c>
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>43885</v>
-      </c>
-      <c r="S5" s="28">
+        <v>44616</v>
+      </c>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
-        <v>43886</v>
-      </c>
-      <c r="T5" s="28">
+        <v>44617</v>
+      </c>
+      <c r="T5" s="27">
         <f t="shared" si="0"/>
-        <v>43887</v>
-      </c>
-      <c r="U5" s="28">
+        <v>44618</v>
+      </c>
+      <c r="U5" s="27">
         <f t="shared" si="0"/>
-        <v>43888</v>
-      </c>
-      <c r="V5" s="28">
+        <v>44619</v>
+      </c>
+      <c r="V5" s="27">
         <f t="shared" si="0"/>
-        <v>43889</v>
-      </c>
-      <c r="W5" s="28">
+        <v>44620</v>
+      </c>
+      <c r="W5" s="27">
         <f t="shared" si="0"/>
-        <v>43890</v>
-      </c>
-      <c r="X5" s="28">
+        <v>44621</v>
+      </c>
+      <c r="X5" s="27">
         <f t="shared" si="0"/>
-        <v>43891</v>
-      </c>
-      <c r="Y5" s="28">
+        <v>44622</v>
+      </c>
+      <c r="Y5" s="27">
         <f t="shared" si="0"/>
-        <v>43892</v>
-      </c>
-      <c r="Z5" s="28">
+        <v>44623</v>
+      </c>
+      <c r="Z5" s="27">
         <f t="shared" si="0"/>
-        <v>43893</v>
-      </c>
-      <c r="AA5" s="28">
+        <v>44624</v>
+      </c>
+      <c r="AA5" s="27">
         <f t="shared" si="0"/>
-        <v>43894</v>
-      </c>
-      <c r="AB5" s="28">
+        <v>44625</v>
+      </c>
+      <c r="AB5" s="27">
         <f t="shared" si="0"/>
-        <v>43895</v>
-      </c>
-      <c r="AC5" s="28">
+        <v>44626</v>
+      </c>
+      <c r="AC5" s="27">
         <f t="shared" si="0"/>
-        <v>43896</v>
-      </c>
-      <c r="AD5" s="28">
+        <v>44627</v>
+      </c>
+      <c r="AD5" s="27">
         <f t="shared" si="0"/>
-        <v>43897</v>
-      </c>
-      <c r="AE5" s="28">
+        <v>44628</v>
+      </c>
+      <c r="AE5" s="27">
         <f t="shared" si="0"/>
-        <v>43898</v>
-      </c>
-      <c r="AF5" s="28">
+        <v>44629</v>
+      </c>
+      <c r="AF5" s="27">
         <f t="shared" si="0"/>
-        <v>43899</v>
-      </c>
-      <c r="AG5" s="28">
+        <v>44630</v>
+      </c>
+      <c r="AG5" s="27">
         <f t="shared" si="0"/>
-        <v>43900</v>
-      </c>
-      <c r="AH5" s="28">
+        <v>44631</v>
+      </c>
+      <c r="AH5" s="27">
         <f t="shared" si="0"/>
-        <v>43901</v>
-      </c>
-      <c r="AI5" s="28">
+        <v>44632</v>
+      </c>
+      <c r="AI5" s="27">
         <f t="shared" si="0"/>
-        <v>43902</v>
-      </c>
-      <c r="AJ5" s="28">
+        <v>44633</v>
+      </c>
+      <c r="AJ5" s="27">
         <f t="shared" si="0"/>
-        <v>43903</v>
-      </c>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
+        <v>44634</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
     </row>
-    <row r="6" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10201,10 +10023,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="1">
-        <v>43889</v>
+        <v>44641</v>
       </c>
       <c r="E6" s="1">
-        <v>43900</v>
+        <v>44650</v>
       </c>
       <c r="F6" s="7">
         <v>8</v>
@@ -10222,7 +10044,7 @@
         <v>32256</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -10231,10 +10053,10 @@
         <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>43892</v>
+        <v>44642</v>
       </c>
       <c r="E7" s="1">
-        <v>43902</v>
+        <v>44652</v>
       </c>
       <c r="F7" s="7">
         <v>9</v>
@@ -10252,7 +10074,7 @@
         <v>226233</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -10261,10 +10083,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>43881</v>
+        <v>44643</v>
       </c>
       <c r="E8" s="1">
-        <v>43887</v>
+        <v>44649</v>
       </c>
       <c r="F8" s="7">
         <v>5</v>
@@ -10282,7 +10104,7 @@
         <v>401579</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>7</v>
@@ -10291,10 +10113,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>43880</v>
+        <v>44644</v>
       </c>
       <c r="E9" s="1">
-        <v>43882</v>
+        <v>44648</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
@@ -10312,7 +10134,7 @@
         <v>807069</v>
       </c>
     </row>
-    <row r="10" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>8</v>
@@ -10321,10 +10143,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>43882</v>
+        <v>44645</v>
       </c>
       <c r="E10" s="1">
-        <v>43892</v>
+        <v>44655</v>
       </c>
       <c r="F10" s="7">
         <v>7</v>
@@ -10342,7 +10164,7 @@
         <v>173166</v>
       </c>
     </row>
-    <row r="11" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>9</v>
@@ -10351,10 +10173,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>43885</v>
+        <v>44646</v>
       </c>
       <c r="E11" s="1">
-        <v>43896</v>
+        <v>44659</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
@@ -10372,7 +10194,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -10381,10 +10203,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>43885</v>
+        <v>44647</v>
       </c>
       <c r="E12" s="1">
-        <v>43896</v>
+        <v>44659</v>
       </c>
       <c r="F12" s="7">
         <v>10</v>
@@ -10402,7 +10224,7 @@
         <v>262679</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>11</v>
@@ -10411,10 +10233,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>43885</v>
+        <v>44648</v>
       </c>
       <c r="E13" s="1">
-        <v>43887</v>
+        <v>44650</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -10432,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -10443,10 +10265,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>43892</v>
+        <v>44634</v>
       </c>
       <c r="E14" s="1">
-        <v>43902</v>
+        <v>44644</v>
       </c>
       <c r="F14" s="7">
         <v>9</v>
@@ -10464,7 +10286,7 @@
         <v>727188</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>5</v>
@@ -10473,10 +10295,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>43892</v>
+        <v>44635</v>
       </c>
       <c r="E15" s="1">
-        <v>43903</v>
+        <v>44648</v>
       </c>
       <c r="F15" s="7">
         <v>10</v>
@@ -10504,7 +10326,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>6</v>
@@ -10513,10 +10335,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="1">
-        <v>43878</v>
+        <v>44636</v>
       </c>
       <c r="E16" s="1">
-        <v>43881</v>
+        <v>44641</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
@@ -10544,7 +10366,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>7</v>
@@ -10553,10 +10375,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="1">
-        <v>43880</v>
+        <v>44637</v>
       </c>
       <c r="E17" s="1">
-        <v>43889</v>
+        <v>44648</v>
       </c>
       <c r="F17" s="7">
         <v>8</v>
@@ -10584,7 +10406,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>8</v>
@@ -10593,10 +10415,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>43885</v>
+        <v>44638</v>
       </c>
       <c r="E18" s="1">
-        <v>43896</v>
+        <v>44651</v>
       </c>
       <c r="F18" s="7">
         <v>10</v>
@@ -10624,7 +10446,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>9</v>
@@ -10633,10 +10455,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="1">
-        <v>43886</v>
+        <v>44639</v>
       </c>
       <c r="E19" s="1">
-        <v>43893</v>
+        <v>44648</v>
       </c>
       <c r="F19" s="7">
         <v>6</v>
@@ -10664,7 +10486,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>10</v>
@@ -10673,10 +10495,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>43886</v>
+        <v>44640</v>
       </c>
       <c r="E20" s="1">
-        <v>43889</v>
+        <v>44644</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -10703,7 +10525,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -10714,10 +10536,10 @@
         <v>35</v>
       </c>
       <c r="D21" s="1">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E21" s="1">
-        <v>43882</v>
+        <v>44615</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
@@ -10740,7 +10562,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" t="s">
         <v>5</v>
@@ -10749,10 +10571,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>43878</v>
+        <v>44610</v>
       </c>
       <c r="E22" s="1">
-        <v>43885</v>
+        <v>44617</v>
       </c>
       <c r="F22" s="7">
         <v>6</v>
@@ -10775,7 +10597,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>6</v>
@@ -10784,10 +10606,10 @@
         <v>37</v>
       </c>
       <c r="D23" s="1">
-        <v>43879</v>
+        <v>44611</v>
       </c>
       <c r="E23" s="1">
-        <v>43892</v>
+        <v>44624</v>
       </c>
       <c r="F23" s="7">
         <v>10</v>
@@ -10805,7 +10627,7 @@
         <v>31046</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>7</v>
@@ -10814,10 +10636,10 @@
         <v>36</v>
       </c>
       <c r="D24" s="1">
-        <v>43882</v>
+        <v>44612</v>
       </c>
       <c r="E24" s="1">
-        <v>43894</v>
+        <v>44623</v>
       </c>
       <c r="F24" s="7">
         <v>9</v>
@@ -10835,7 +10657,7 @@
         <v>261324</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>8</v>
@@ -10844,10 +10666,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="1">
-        <v>43878</v>
+        <v>44613</v>
       </c>
       <c r="E25" s="1">
-        <v>43881</v>
+        <v>44616</v>
       </c>
       <c r="F25" s="7">
         <v>4</v>
@@ -10855,7 +10677,7 @@
       <c r="G25" s="12">
         <v>1</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="11">
         <v>0.25</v>
       </c>
       <c r="I25" s="3">
@@ -10865,7 +10687,7 @@
         <v>116850</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>9</v>
@@ -10874,10 +10696,10 @@
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <v>43881</v>
+        <v>44614</v>
       </c>
       <c r="E26" s="1">
-        <v>43888</v>
+        <v>44621</v>
       </c>
       <c r="F26" s="7">
         <v>6</v>
@@ -10895,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>10</v>
@@ -10904,10 +10726,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>43881</v>
+        <v>44615</v>
       </c>
       <c r="E27" s="1">
-        <v>43889</v>
+        <v>44623</v>
       </c>
       <c r="F27" s="7">
         <v>7</v>
@@ -10925,7 +10747,7 @@
         <v>79380</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>11</v>
@@ -10934,10 +10756,10 @@
         <v>37</v>
       </c>
       <c r="D28" s="1">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E28" s="1">
-        <v>43889</v>
+        <v>44622</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
@@ -10955,7 +10777,7 @@
         <v>195231</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>12</v>
@@ -10964,10 +10786,10 @@
         <v>36</v>
       </c>
       <c r="D29" s="1">
-        <v>43885</v>
+        <v>44617</v>
       </c>
       <c r="E29" s="1">
-        <v>43895</v>
+        <v>44629</v>
       </c>
       <c r="F29" s="7">
         <v>9</v>
@@ -10985,7 +10807,7 @@
         <v>74746</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>96</v>
@@ -10994,10 +10816,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="1">
-        <v>43885</v>
+        <v>44618</v>
       </c>
       <c r="E30" s="1">
-        <v>43892</v>
+        <v>44627</v>
       </c>
       <c r="F30" s="7">
         <v>6</v>
@@ -11015,7 +10837,7 @@
         <v>175015</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -11026,10 +10848,10 @@
         <v>35</v>
       </c>
       <c r="D31" s="1">
-        <v>43879</v>
+        <v>44619</v>
       </c>
       <c r="E31" s="1">
-        <v>43887</v>
+        <v>44628</v>
       </c>
       <c r="F31" s="7">
         <v>7</v>
@@ -11047,7 +10869,7 @@
         <v>273001</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" t="s">
         <v>5</v>
@@ -11056,10 +10878,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>43878</v>
+        <v>44620</v>
       </c>
       <c r="E32" s="1">
-        <v>43888</v>
+        <v>44630</v>
       </c>
       <c r="F32" s="7">
         <v>9</v>
@@ -11077,7 +10899,7 @@
         <v>57910</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" t="s">
         <v>6</v>
@@ -11086,10 +10908,10 @@
         <v>37</v>
       </c>
       <c r="D33" s="1">
-        <v>43879</v>
+        <v>44621</v>
       </c>
       <c r="E33" s="1">
-        <v>43888</v>
+        <v>44630</v>
       </c>
       <c r="F33" s="7">
         <v>8</v>
@@ -11107,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>7</v>
@@ -11116,10 +10938,10 @@
         <v>36</v>
       </c>
       <c r="D34" s="1">
-        <v>43881</v>
+        <v>44622</v>
       </c>
       <c r="E34" s="1">
-        <v>43889</v>
+        <v>44630</v>
       </c>
       <c r="F34" s="7">
         <v>7</v>
@@ -11137,7 +10959,7 @@
         <v>379157</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>8</v>
@@ -11146,10 +10968,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="1">
-        <v>43882</v>
+        <v>44623</v>
       </c>
       <c r="E35" s="1">
-        <v>43887</v>
+        <v>44628</v>
       </c>
       <c r="F35" s="7">
         <v>4</v>
@@ -11167,7 +10989,7 @@
         <v>322812</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>9</v>
@@ -11176,10 +10998,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="1">
-        <v>43882</v>
+        <v>44624</v>
       </c>
       <c r="E36" s="1">
-        <v>43889</v>
+        <v>44631</v>
       </c>
       <c r="F36" s="7">
         <v>6</v>
@@ -11197,7 +11019,7 @@
         <v>38461</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" t="s">
         <v>10</v>
@@ -11206,10 +11028,10 @@
         <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>43885</v>
+        <v>44625</v>
       </c>
       <c r="E37" s="1">
-        <v>43892</v>
+        <v>44634</v>
       </c>
       <c r="F37" s="7">
         <v>6</v>
@@ -11227,7 +11049,7 @@
         <v>136468</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>11</v>
@@ -11236,10 +11058,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="1">
-        <v>43886</v>
+        <v>44626</v>
       </c>
       <c r="E38" s="1">
-        <v>43889</v>
+        <v>44630</v>
       </c>
       <c r="F38" s="7">
         <v>4</v>
@@ -11257,7 +11079,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>12</v>
@@ -11266,10 +11088,10 @@
         <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>43888</v>
+        <v>44627</v>
       </c>
       <c r="E39" s="1">
-        <v>43896</v>
+        <v>44635</v>
       </c>
       <c r="F39" s="7">
         <v>7</v>
@@ -11287,7 +11109,7 @@
         <v>273048</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>96</v>
@@ -11296,10 +11118,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="1">
-        <v>43878</v>
+        <v>44628</v>
       </c>
       <c r="E40" s="1">
-        <v>43880</v>
+        <v>44630</v>
       </c>
       <c r="F40" s="7">
         <v>3</v>
@@ -11317,7 +11139,7 @@
         <v>64987</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -11328,10 +11150,10 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>43878</v>
+        <v>44629</v>
       </c>
       <c r="E41" s="1">
-        <v>43889</v>
+        <v>44642</v>
       </c>
       <c r="F41" s="7">
         <v>10</v>
@@ -11349,7 +11171,7 @@
         <v>406974</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" t="s">
         <v>5</v>
@@ -11358,10 +11180,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>43882</v>
+        <v>44630</v>
       </c>
       <c r="E42" s="1">
-        <v>43888</v>
+        <v>44636</v>
       </c>
       <c r="F42" s="7">
         <v>5</v>
@@ -11379,7 +11201,7 @@
         <v>487139</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" t="s">
         <v>6</v>
@@ -11388,10 +11210,10 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>43885</v>
+        <v>44631</v>
       </c>
       <c r="E43" s="1">
-        <v>43893</v>
+        <v>44641</v>
       </c>
       <c r="F43" s="7">
         <v>7</v>
@@ -11409,7 +11231,7 @@
         <v>298186</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" t="s">
         <v>7</v>
@@ -11418,10 +11240,10 @@
         <v>36</v>
       </c>
       <c r="D44" s="1">
-        <v>43887</v>
+        <v>44632</v>
       </c>
       <c r="E44" s="1">
-        <v>43895</v>
+        <v>44642</v>
       </c>
       <c r="F44" s="7">
         <v>7</v>
@@ -11439,7 +11261,7 @@
         <v>280583</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" t="s">
         <v>8</v>
@@ -11448,10 +11270,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="1">
-        <v>43889</v>
+        <v>44633</v>
       </c>
       <c r="E45" s="1">
-        <v>43893</v>
+        <v>44636</v>
       </c>
       <c r="F45" s="7">
         <v>3</v>
@@ -11469,7 +11291,7 @@
         <v>129785</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>26</v>
       </c>
@@ -11487,360 +11309,360 @@
         <v>8340291</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-    </row>
-    <row r="63" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="16"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-    </row>
-    <row r="65" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="16"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-    </row>
-    <row r="67" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="16"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="16"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="16"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-    </row>
-    <row r="73" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="16"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-    </row>
-    <row r="74" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="16"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="16"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-    </row>
-    <row r="77" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-    </row>
-    <row r="78" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="16"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="16"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="16"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="4:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="15"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+    </row>
+    <row r="80" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+    </row>
+    <row r="81" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+    </row>
+    <row r="82" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+    </row>
+    <row r="85" spans="4:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:AQ5">
-    <cfRule type="expression" dxfId="161" priority="7">
+    <cfRule type="expression" dxfId="109" priority="7">
       <formula>K$5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11859,19 +11681,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AJ51">
-    <cfRule type="expression" dxfId="160" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1" stopIfTrue="1">
       <formula>$A6="Grand Total"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$5,2)&gt;5,$B6&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="3">
+    <cfRule type="expression" dxfId="106" priority="3">
       <formula>AND(K$5&gt;=$D6,WORKDAY.INTL($D6,$G6,1)-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6=0,K$5&lt;=$E6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>AND(K$5&gt;=WORKDAY.INTL($D6,$G6,1),$H6&lt;&gt;1,K$5&lt;=$E6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11959,25 +11781,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="E1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="I1" s="47" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="I1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="P1" s="48" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="P1" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11991,7 +11813,7 @@
       <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f>COUNTIF(Dashboard!H6:H51,"="&amp;0)</f>
         <v>4</v>
       </c>
@@ -12002,13 +11824,13 @@
       <c r="I2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>47</v>
       </c>
       <c r="P2">
@@ -12019,10 +11841,10 @@
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>8340291</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>19695000</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -12046,7 +11868,7 @@
       <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="41">
         <f>J3/$J$4</f>
         <v>0.42105263157894735</v>
       </c>
@@ -12070,7 +11892,7 @@
       <c r="E4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f>COUNTIF(Dashboard!H6:H51,"="&amp;1)</f>
         <v>3</v>
       </c>
@@ -12088,7 +11910,7 @@
       <c r="L4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="41">
         <f>1-M3</f>
         <v>0.57894736842105265</v>
       </c>
@@ -12106,7 +11928,7 @@
       <c r="E5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f>F3+F2</f>
         <v>37</v>
       </c>
@@ -12149,82 +11971,82 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="50"/>
-    <col min="2" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
+    <col min="2" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>2.0099999999999998</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="50">
+      <c r="A38" s="49">
         <v>2.02</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="50">
+      <c r="A39" s="49">
         <v>2.0299999999999998</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="50">
+      <c r="A40" s="49">
         <v>2.04</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="50">
+      <c r="A41" s="49">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12232,168 +12054,168 @@
       <c r="B51"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
+      <c r="A64" s="37"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
+      <c r="A75" s="37"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="37" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="44" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="50">
+      <c r="A128" s="49">
         <v>10.1</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="50">
+      <c r="A134" s="49">
         <v>10.199999999999999</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="50">
+      <c r="A152" s="49">
         <v>10.3</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="50">
+      <c r="A171" s="49">
         <v>10.4</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="50">
+      <c r="A189" s="49">
         <v>10.5</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="50">
+      <c r="A207" s="49">
         <v>10.6</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="50">
+      <c r="A226" s="49">
         <v>10.7</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="B226" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="50" t="s">
+      <c r="A244" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="37" t="s">
         <v>86</v>
       </c>
     </row>
@@ -12408,8 +12230,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12417,7 +12239,7 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -12436,7 +12258,7 @@
       <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -12460,882 +12282,882 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
-        <v>43878</v>
+        <v>44641</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43882</v>
+        <v>44650</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="I2" s="3">
-        <v>218000</v>
+        <v>96000</v>
       </c>
       <c r="J2" s="3">
-        <v>97337</v>
+        <v>32256</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
-        <v>43878</v>
+        <v>44642</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43885</v>
+        <v>44652</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I3" s="3">
-        <v>393000</v>
+        <v>513000</v>
       </c>
       <c r="J3" s="3">
-        <v>177440</v>
+        <v>226233</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>43879</v>
+        <v>44643</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43892</v>
+        <v>44649</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I4" s="3">
-        <v>86000</v>
+        <v>616000</v>
       </c>
       <c r="J4" s="3">
-        <v>31046</v>
+        <v>401579</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>43882</v>
+        <v>44644</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43894</v>
+        <v>44648</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>732000</v>
+        <v>817000</v>
       </c>
       <c r="J5" s="3">
-        <v>261324</v>
+        <v>807069</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>43878</v>
+        <v>44645</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43881</v>
+        <v>44655</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I6" s="3">
-        <v>492000</v>
+        <v>372000</v>
       </c>
       <c r="J6" s="3">
-        <v>116850</v>
+        <v>173166</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>43881</v>
+        <v>44646</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43888</v>
+        <v>44659</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="3">
-        <v>188000</v>
+        <v>50000</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>43881</v>
+        <v>44647</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44659</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.42857142857142855</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="3">
-        <v>180000</v>
+        <v>807000</v>
       </c>
       <c r="J8" s="3">
-        <v>79380</v>
+        <v>262679</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
-        <v>43885</v>
+        <v>44648</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44650</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>582000</v>
+        <v>691000</v>
       </c>
       <c r="J9" s="3">
-        <v>195231</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
-        <v>43885</v>
+        <v>44634</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43895</v>
+        <v>44644</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.1111111111111111</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I10" s="3">
-        <v>562000</v>
+        <v>787000</v>
       </c>
       <c r="J10" s="3">
-        <v>74746</v>
+        <v>727188</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>43885</v>
+        <v>44635</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43892</v>
+        <v>44648</v>
       </c>
       <c r="G11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="3">
-        <v>416000</v>
+        <v>228000</v>
       </c>
       <c r="J11" s="3">
-        <v>175015</v>
+        <v>47880</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44636</v>
+      </c>
+      <c r="E12">
         <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43879</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
       </c>
       <c r="F12" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43887</v>
+        <v>44641</v>
       </c>
       <c r="G12" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>293000</v>
+        <v>147000</v>
       </c>
       <c r="J12" s="3">
-        <v>273001</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>43878</v>
+        <v>44637</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43888</v>
+        <v>44648</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.44444444444444442</v>
+        <v>0.625</v>
       </c>
       <c r="I13" s="3">
-        <v>224000</v>
+        <v>338000</v>
       </c>
       <c r="J13" s="3">
-        <v>57910</v>
+        <v>205123</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
-        <v>43879</v>
+        <v>44638</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43888</v>
+        <v>44651</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="3">
-        <v>978000</v>
+        <v>857000</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>305949</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>43881</v>
+        <v>44639</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44648</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="3">
-        <v>932000</v>
+        <v>602000</v>
       </c>
       <c r="J15" s="3">
-        <v>379157</v>
+        <v>322371</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>43882</v>
+        <v>44640</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43887</v>
+        <v>44644</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="3">
-        <v>854000</v>
+        <v>990000</v>
       </c>
       <c r="J16" s="3">
-        <v>322812</v>
+        <v>451440</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1">
-        <v>43882</v>
+        <v>44609</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44615</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="3">
-        <v>81000</v>
+        <v>218000</v>
       </c>
       <c r="J17" s="3">
-        <v>38461</v>
+        <v>97337</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>43885</v>
+        <v>44610</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43892</v>
+        <v>44617</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="3">
-        <v>169000</v>
+        <v>393000</v>
       </c>
       <c r="J18" s="3">
-        <v>136468</v>
+        <v>177440</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1">
-        <v>43886</v>
+        <v>44611</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44624</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="3">
-        <v>61000</v>
+        <v>86000</v>
       </c>
       <c r="J19" s="3">
-        <v>12078</v>
+        <v>31046</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1">
-        <v>43888</v>
+        <v>44612</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <v>44623</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.42857142857142855</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20" s="3">
-        <v>645000</v>
+        <v>732000</v>
       </c>
       <c r="J20" s="3">
-        <v>273048</v>
+        <v>261324</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="1">
-        <v>43878</v>
+        <v>44613</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43880</v>
+        <v>44616</v>
       </c>
       <c r="G21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="3">
-        <v>68000</v>
+        <v>492000</v>
       </c>
       <c r="J21" s="3">
-        <v>64987</v>
+        <v>116850</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="1">
-        <v>43878</v>
+        <v>44614</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44621</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>839000</v>
+        <v>188000</v>
       </c>
       <c r="J22" s="3">
-        <v>406974</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>43882</v>
+        <v>44615</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43888</v>
+        <v>44623</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.8</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I23" s="3">
-        <v>729000</v>
+        <v>180000</v>
       </c>
       <c r="J23" s="3">
-        <v>487139</v>
+        <v>79380</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43893</v>
+        <v>44622</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="3">
-        <v>826000</v>
+        <v>582000</v>
       </c>
       <c r="J24" s="3">
-        <v>298186</v>
+        <v>195231</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1">
-        <v>43887</v>
+        <v>44617</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43895</v>
+        <v>44629</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.2857142857142857</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I25" s="3">
-        <v>895000</v>
+        <v>562000</v>
       </c>
       <c r="J25" s="3">
-        <v>280583</v>
+        <v>74746</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="1">
-        <v>43889</v>
+        <v>44618</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43893</v>
+        <v>44627</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="3">
-        <v>341000</v>
+        <v>416000</v>
       </c>
       <c r="J26" s="3">
-        <v>129785</v>
+        <v>175015</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -13344,33 +13166,33 @@
         <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>43892</v>
+        <v>44619</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43902</v>
+        <v>44628</v>
       </c>
       <c r="G27" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>787000</v>
+        <v>293000</v>
       </c>
       <c r="J27" s="3">
-        <v>727188</v>
+        <v>273001</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -13379,33 +13201,33 @@
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>43892</v>
+        <v>44620</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43903</v>
+        <v>44630</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.2</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I28" s="3">
-        <v>228000</v>
+        <v>224000</v>
       </c>
       <c r="J28" s="3">
-        <v>47880</v>
+        <v>57910</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -13414,14 +13236,14 @@
         <v>37</v>
       </c>
       <c r="D29" s="1">
-        <v>43878</v>
+        <v>44621</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43881</v>
+        <v>44630</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -13431,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>147000</v>
+        <v>978000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -13440,7 +13262,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -13449,33 +13271,33 @@
         <v>36</v>
       </c>
       <c r="D30" s="1">
-        <v>43880</v>
+        <v>44622</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44630</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.625</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I30" s="3">
-        <v>338000</v>
+        <v>932000</v>
       </c>
       <c r="J30" s="3">
-        <v>205123</v>
+        <v>379157</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -13484,33 +13306,33 @@
         <v>21</v>
       </c>
       <c r="D31" s="1">
-        <v>43885</v>
+        <v>44623</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <v>44628</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="3">
-        <v>857000</v>
+        <v>854000</v>
       </c>
       <c r="J31" s="3">
-        <v>305949</v>
+        <v>322812</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -13519,14 +13341,14 @@
         <v>35</v>
       </c>
       <c r="D32" s="1">
-        <v>43886</v>
+        <v>44624</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43893</v>
+        <v>44631</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
@@ -13536,16 +13358,16 @@
         <v>0.5</v>
       </c>
       <c r="I32" s="3">
-        <v>602000</v>
+        <v>81000</v>
       </c>
       <c r="J32" s="3">
-        <v>322371</v>
+        <v>38461</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -13554,311 +13376,312 @@
         <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>43886</v>
+        <v>44625</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <v>44634</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I33" s="3">
-        <v>990000</v>
+        <v>169000</v>
       </c>
       <c r="J33" s="3">
-        <v>451440</v>
+        <v>136468</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>43889</v>
+        <v>44626</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43900</v>
+        <v>44630</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="I34" s="3">
-        <v>96000</v>
+        <v>61000</v>
       </c>
       <c r="J34" s="3">
-        <v>32256</v>
+        <v>12078</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>43892</v>
+        <v>44627</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43902</v>
+        <v>44635</v>
       </c>
       <c r="G35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.44444444444444442</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I35" s="3">
-        <v>513000</v>
+        <v>645000</v>
       </c>
       <c r="J35" s="3">
-        <v>226233</v>
+        <v>273048</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="1">
-        <v>43881</v>
+        <v>44628</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43887</v>
+        <v>44630</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
       </c>
       <c r="H36" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>616000</v>
+        <v>68000</v>
       </c>
       <c r="J36" s="3">
-        <v>401579</v>
+        <v>64987</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>43880</v>
+        <v>44629</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43882</v>
+        <v>44642</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="3">
-        <v>817000</v>
+        <v>839000</v>
       </c>
       <c r="J37" s="3">
-        <v>807069</v>
+        <v>406974</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>43882</v>
+        <v>44630</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43892</v>
+        <v>44636</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.42857142857142855</v>
+        <v>0.8</v>
       </c>
       <c r="I38" s="3">
-        <v>372000</v>
+        <v>729000</v>
       </c>
       <c r="J38" s="3">
-        <v>173166</v>
+        <v>487139</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>43885</v>
+        <v>44631</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <v>44641</v>
       </c>
       <c r="G39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I39" s="3">
-        <v>50000</v>
+        <v>826000</v>
       </c>
       <c r="J39" s="3">
-        <v>8400</v>
+        <v>298186</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="1">
-        <v>43885</v>
+        <v>44632</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <v>44642</v>
       </c>
       <c r="G40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I40" s="3">
-        <v>807000</v>
+        <v>895000</v>
       </c>
       <c r="J40" s="3">
-        <v>262679</v>
+        <v>280583</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="1">
-        <v>43885</v>
+        <v>44633</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" s="1">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43887</v>
+        <v>44636</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
         <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I41" s="3">
-        <v>691000</v>
+        <v>341000</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>129785</v>
       </c>
       <c r="L41" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
